--- a/data/trans_orig/dukeCONF-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/dukeCONF-Habitat-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>31,22</t>
+          <t>29,71</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>30,11</t>
+          <t>31,17</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>29,93</t>
+          <t>29,56</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>29,91</t>
+          <t>30,6</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>28,95</t>
+          <t>28,52</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>30,43</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>29,13</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>30,3</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>29,12</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>30,8</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>29,35</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>29,22</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>30,39</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>30,1</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>29,73</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>29,58</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>30,18</t>
+          <t>30,44</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,49; 31,95</t>
+          <t>29,33; 30,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>29,05; 31,04</t>
+          <t>30,79; 31,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>28,66; 30,83</t>
+          <t>29,15; 29,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>28,44; 30,94</t>
+          <t>30,09; 31,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,97; 29,87</t>
+          <t>28,11; 28,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,19; 30,18</t>
+          <t>30,04; 30,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,13; 30,19</t>
+          <t>28,75; 29,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,69; 31,09</t>
+          <t>29,96; 30,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,45; 30,68</t>
+          <t>28,83; 29,41</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28,99; 30,39</t>
+          <t>30,54; 31,07</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,84; 30,28</t>
+          <t>29,07; 29,63</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>29,52; 30,78</t>
+          <t>30,15; 30,7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>29,41</t>
+          <t>30,1</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>31,37</t>
+          <t>30,54</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>29,48</t>
+          <t>30,05</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>30,48</t>
+          <t>31,48</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>28,44</t>
+          <t>29,54</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>30,64</t>
+          <t>30,15</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>29,11</t>
+          <t>29,81</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>30,19</t>
+          <t>30,05</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>28,93</t>
+          <t>29,82</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>31,01</t>
+          <t>30,34</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>29,3</t>
+          <t>29,93</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>30,33</t>
+          <t>30,84</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>28,97; 29,82</t>
+          <t>29,73; 30,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,97; 31,73</t>
+          <t>30,22; 30,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,05; 29,9</t>
+          <t>29,74; 30,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,02; 30,98</t>
+          <t>30,43; 33,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,91; 28,86</t>
+          <t>29,18; 29,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,2; 31,02</t>
+          <t>29,82; 30,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,68; 29,53</t>
+          <t>29,53; 30,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,79; 30,52</t>
+          <t>29,73; 30,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,62; 29,23</t>
+          <t>29,59; 30,06</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>30,71; 31,28</t>
+          <t>30,1; 30,55</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>29,01; 29,59</t>
+          <t>29,72; 30,14</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>30,01; 30,62</t>
+          <t>30,23; 32,25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>30,1</t>
+          <t>30,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>30,54</t>
+          <t>30,6</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>30,05</t>
+          <t>29,06</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>30,71</t>
+          <t>30,65</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>29,54</t>
+          <t>29,86</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>30,15</t>
+          <t>30,03</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>29,81</t>
+          <t>28,92</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>29,98</t>
+          <t>30,56</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>29,82</t>
+          <t>30,2</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>30,34</t>
+          <t>30,31</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>29,93</t>
+          <t>28,99</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>30,34</t>
+          <t>30,6</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>29,73; 30,42</t>
+          <t>30,15; 30,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,22; 30,85</t>
+          <t>30,19; 30,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,74; 30,31</t>
+          <t>28,75; 29,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,3; 31,48</t>
+          <t>30,28; 31,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,18; 29,87</t>
+          <t>29,4; 30,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,82; 30,43</t>
+          <t>29,64; 30,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,53; 30,08</t>
+          <t>28,6; 29,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>29,65; 30,27</t>
+          <t>30,14; 31,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>29,59; 30,06</t>
+          <t>29,85; 30,46</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>30,1; 30,55</t>
+          <t>30,01; 30,56</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>29,72; 30,14</t>
+          <t>28,75; 29,2</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>30,07; 30,71</t>
+          <t>30,32; 31,01</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>30,55</t>
+          <t>29,9</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>30,6</t>
+          <t>30,21</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>29,06</t>
+          <t>29,83</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30,58</t>
+          <t>30,7</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>29,86</t>
+          <t>29,35</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,03</t>
+          <t>29,64</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>28,92</t>
+          <t>29,66</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30,38</t>
+          <t>30,78</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>30,2</t>
+          <t>29,61</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>30,31</t>
+          <t>29,91</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>28,99</t>
+          <t>29,74</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>30,48</t>
+          <t>30,74</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30,15; 30,98</t>
+          <t>29,55; 30,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,19; 30,98</t>
+          <t>29,86; 30,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,75; 29,38</t>
+          <t>29,53; 30,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,2; 30,99</t>
+          <t>30,33; 31,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,4; 30,23</t>
+          <t>28,98; 29,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,64; 30,41</t>
+          <t>29,34; 29,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,6; 29,25</t>
+          <t>29,28; 29,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,0; 30,73</t>
+          <t>30,36; 31,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,85; 30,46</t>
+          <t>29,36; 29,88</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>30,01; 30,56</t>
+          <t>29,69; 30,13</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>28,75; 29,2</t>
+          <t>29,51; 29,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>30,21; 30,76</t>
+          <t>30,47; 31,2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,37 +1216,37 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>29,9</t>
+          <t>30,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>30,21</t>
+          <t>30,59</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>29,83</t>
+          <t>29,67</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>30,53</t>
+          <t>30,94</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>29,35</t>
+          <t>29,34</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>29,64</t>
+          <t>30,03</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>29,66</t>
+          <t>29,44</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1256,22 +1256,22 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>29,61</t>
+          <t>29,69</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>29,91</t>
+          <t>30,3</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>29,74</t>
+          <t>29,55</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>30,48</t>
+          <t>30,69</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>29,55; 30,26</t>
+          <t>29,88; 30,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>29,86; 30,5</t>
+          <t>30,41; 30,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29,53; 30,14</t>
+          <t>29,49; 29,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>30,16; 30,89</t>
+          <t>30,57; 31,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>28,98; 29,72</t>
+          <t>29,14; 29,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,34; 29,97</t>
+          <t>29,85; 30,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,28; 29,97</t>
+          <t>29,28; 29,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30,1; 30,72</t>
+          <t>30,26; 30,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>29,36; 29,88</t>
+          <t>29,55; 29,82</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>29,69; 30,13</t>
+          <t>30,18; 30,43</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>29,51; 29,97</t>
+          <t>29,44; 29,67</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>30,24; 30,72</t>
+          <t>30,47; 31,22</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>30,05</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>30,59</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>29,67</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>30,57</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>29,34</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>30,03</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>29,44</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>30,25</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>29,69</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>30,3</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>29,55</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>30,4</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>29,88; 30,24</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>30,41; 30,77</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>29,49; 29,82</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>30,37; 30,82</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>29,14; 29,53</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>29,85; 30,2</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>29,28; 29,59</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>30,09; 30,41</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>29,55; 29,82</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>30,18; 30,43</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>29,44; 29,67</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>30,26; 30,54</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/dukeCONF-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/dukeCONF-Habitat-trans_orig.xlsx
@@ -724,42 +724,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29,33; 30,04</t>
+          <t>29,32; 30,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>30,79; 31,51</t>
+          <t>30,81; 31,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,15; 29,93</t>
+          <t>29,17; 29,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>30,09; 31,05</t>
+          <t>30,15; 31,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,11; 28,97</t>
+          <t>28,08; 28,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,04; 30,79</t>
+          <t>30,01; 30,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,75; 29,53</t>
+          <t>28,74; 29,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,96; 30,62</t>
+          <t>29,93; 30,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,17 +769,17 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>30,54; 31,07</t>
+          <t>30,55; 31,08</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>29,07; 29,63</t>
+          <t>29,08; 29,64</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>30,15; 30,7</t>
+          <t>30,16; 30,71</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,73; 30,42</t>
+          <t>29,76; 30,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,22; 30,85</t>
+          <t>30,23; 30,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,74; 30,31</t>
+          <t>29,77; 30,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,43; 33,28</t>
+          <t>30,47; 33,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,18; 29,87</t>
+          <t>29,2; 29,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,82; 30,43</t>
+          <t>29,8; 30,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,53; 30,08</t>
+          <t>29,53; 30,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,73; 30,35</t>
+          <t>29,74; 30,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,59; 30,06</t>
+          <t>29,57; 30,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>30,1; 30,55</t>
+          <t>30,12; 30,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>29,72; 30,14</t>
+          <t>29,72; 30,13</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>30,23; 32,25</t>
+          <t>30,23; 32,15</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>30,15; 30,98</t>
+          <t>30,16; 30,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1014,52 +1014,52 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>28,75; 29,38</t>
+          <t>28,74; 29,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,28; 31,05</t>
+          <t>30,25; 31,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,4; 30,23</t>
+          <t>29,41; 30,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,64; 30,41</t>
+          <t>29,63; 30,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>28,6; 29,25</t>
+          <t>28,63; 29,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>30,14; 31,21</t>
+          <t>30,17; 31,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>29,85; 30,46</t>
+          <t>29,88; 30,47</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>30,01; 30,56</t>
+          <t>30,03; 30,58</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>28,75; 29,2</t>
+          <t>28,76; 29,21</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>30,32; 31,01</t>
+          <t>30,34; 31,01</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>29,55; 30,26</t>
+          <t>29,51; 30,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,86; 30,5</t>
+          <t>29,86; 30,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,53; 30,14</t>
+          <t>29,51; 30,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,33; 31,06</t>
+          <t>30,36; 31,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,98; 29,72</t>
+          <t>29,01; 29,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,34; 29,97</t>
+          <t>29,32; 29,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,28; 29,97</t>
+          <t>29,35; 29,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,36; 31,72</t>
+          <t>30,41; 31,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,36; 29,88</t>
+          <t>29,36; 29,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,69; 30,13</t>
+          <t>29,68; 30,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>29,51; 29,97</t>
+          <t>29,52; 29,95</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>30,47; 31,2</t>
+          <t>30,47; 31,26</t>
         </is>
       </c>
     </row>
@@ -1284,47 +1284,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>29,88; 30,24</t>
+          <t>29,87; 30,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>30,41; 30,77</t>
+          <t>30,39; 30,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29,49; 29,82</t>
+          <t>29,51; 29,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>30,57; 31,86</t>
+          <t>30,57; 31,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,14; 29,53</t>
+          <t>29,14; 29,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,85; 30,2</t>
+          <t>29,85; 30,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,28; 29,59</t>
+          <t>29,28; 29,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30,26; 30,8</t>
+          <t>30,23; 30,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>29,55; 29,82</t>
+          <t>29,57; 29,83</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>30,47; 31,22</t>
+          <t>30,47; 31,27</t>
         </is>
       </c>
     </row>
